--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T17:19:20+00:00</t>
+    <t>2023-07-04T17:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de promoteur(s) secondaire(s)</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -211,7 +211,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|Organization)
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:45:33+00:00</t>
+    <t>2023-07-04T19:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T19:15:23+00:00</t>
+    <t>2023-07-05T07:22:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T07:22:55+00:00</t>
+    <t>2023-07-05T09:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
+++ b/ig/profiling_researchstudy/StructureDefinition-eclaire-secondary-sponsor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T09:33:26+00:00</t>
+    <t>2023-07-05T09:53:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -211,7 +211,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|Organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
